--- a/20230215_VXI-11 通信の概要/307j_VXI_11_Table_B_2.xlsx
+++ b/20230215_VXI-11 通信の概要/307j_VXI_11_Table_B_2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6480300E-9564-4673-B1F2-42E30DA85C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D19237-79D0-4385-ADD6-E948E01EA16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="エラー番号一覧" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">エラー番号一覧!$A$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,36 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>device not accessible</t>
-  </si>
-  <si>
-    <t>channel not established</t>
-  </si>
-  <si>
-    <t>operation not supported</t>
-  </si>
-  <si>
-    <t>out of resources</t>
-  </si>
-  <si>
-    <t>device locked by another link</t>
-  </si>
-  <si>
-    <t>no lock held by this link</t>
-  </si>
-  <si>
-    <t>I/O timeout</t>
-  </si>
-  <si>
-    <t>I/O error</t>
-  </si>
-  <si>
-    <t>Invalid address</t>
-  </si>
-  <si>
-    <t>channel already established</t>
-  </si>
-  <si>
     <t>エラー番号</t>
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
@@ -91,29 +64,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>デバイスにアクセスできない</t>
+  </si>
+  <si>
+    <t>不正な識別子リンク</t>
+  </si>
+  <si>
+    <t>チャネルが確立されていない</t>
+  </si>
+  <si>
+    <t>動作未対応</t>
+  </si>
+  <si>
+    <t>リソースがない</t>
+  </si>
+  <si>
+    <t>他のリンクによってロックされたデバイス</t>
+  </si>
+  <si>
+    <t>このリンクでロックされていない</t>
+  </si>
+  <si>
+    <t>無効なアドレス</t>
+  </si>
+  <si>
+    <t>処理を中断した</t>
+  </si>
+  <si>
+    <t>チャネルが既に確立されている</t>
+  </si>
+  <si>
     <t>引数エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力タイムアウト</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理を中断した</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正なリンク識別子</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シキベツシ</t>
+    <t>入出力エラー</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,12 +141,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,12 +170,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -189,16 +201,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>97705</xdr:rowOff>
+      <xdr:rowOff>97704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -221,12 +233,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="4953000" cy="4506418"/>
+          <a:off x="4651376" y="0"/>
+          <a:ext cx="4953000" cy="4383954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -531,148 +548,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A9169A-E4D9-4598-98E9-DF7D7A23CE14}">
-  <dimension ref="H2:I17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H10" s="1">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H11" s="1">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H12" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H13" s="1">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H14" s="1">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H15" s="1">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H16" s="1">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H17" s="1">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>